--- a/data/trans_bre/P68-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P68-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">

--- a/data/trans_bre/P68-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P68-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,34</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-13,59</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,75</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-2,07</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-4,98%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-31,76%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>9,34%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,59%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-21,19; 19,76</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-36,12; 13,54</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,38; 21,07</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-20,18; 15,8</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-66,47; 105,29</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-73,15; 39,77</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-65,39; 208,81</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-52,98; 99,78</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,11</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,09</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,13</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,78%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-25,89%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,62%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,8; 9,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,88; 5,19</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,24; 3,24</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,44; 7,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-35,63; 55,81</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-48,77; 24,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-55,63; 17,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,94; 45,66</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-24,99%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-14,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>35,22%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,88; 0,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,03; 7,25</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,19; 3,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,82; 12,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-44,24; 0,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-24,25; 36,03</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-38,5; 14,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,38; 82,78</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,63</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-21,0%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>51,77%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-12,18; 3,17</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,84; 8,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,49; 0,6</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,42; 17,13</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-41,41; 13,94</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,23; 39,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-39,43; 2,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,74; 122,47</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,54</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>16,75%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,51; 3,16</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,67; 8,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,74; 4,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-2,39; 9,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-27,61; 14,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-16,59; 51,88</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-30,67; 26,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,98; 49,11</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>4,86</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-15,55%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,93%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,81; -0,19</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-3,79; 3,47</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-7,7; -0,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,66; 8,36</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-26,05; -1,01</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,53; 15,64</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-28,19; 0,21</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,97; 46,36</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P68-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P68-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,34</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-13,59</t>
+          <t>-7,01</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,75</t>
+          <t>-4,69</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-2,07</t>
+          <t>-0,23</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-4,98%</t>
+          <t>-0,36%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-31,76%</t>
+          <t>-24,28%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,34%</t>
+          <t>-20,68%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-7,59%</t>
+          <t>-1,08%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-21,19; 19,76</t>
+          <t>-7,72; 8,14</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-36,12; 13,54</t>
+          <t>-15,68; 2,01</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,38; 21,07</t>
+          <t>-12,19; 3,72</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-20,18; 15,8</t>
+          <t>-6,36; 5,75</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-66,47; 105,29</t>
+          <t>-32,97; 45,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,15; 39,77</t>
+          <t>-47,98; 7,82</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-65,39; 208,81</t>
+          <t>-47,66; 19,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-52,98; 99,78</t>
+          <t>-25,48; 32,33</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,11</t>
+          <t>-6,61</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-5,05</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-6,09</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>11,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,54%</t>
+          <t>-24,99%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-19,78%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-25,89%</t>
+          <t>-14,57%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>79,01%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-7,8; 9,51</t>
+          <t>-12,88; 0,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-13,88; 5,19</t>
+          <t>-6,03; 7,25</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 3,24</t>
+          <t>-10,19; 3,1</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,44; 7,06</t>
+          <t>2,79; 20,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-35,63; 55,81</t>
+          <t>-44,24; 0,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-48,77; 24,29</t>
+          <t>-24,25; 36,03</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-55,63; 17,11</t>
+          <t>-38,5; 14,21</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-26,94; 45,66</t>
+          <t>12,62; 312,88</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,61</t>
+          <t>-5,15</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-3,46</t>
+          <t>-6,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,53</t>
+          <t>14,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-24,99%</t>
+          <t>-19,09%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>0,16%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-14,57%</t>
+          <t>-21,0%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>35,22%</t>
+          <t>87,51%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 0,09</t>
+          <t>-12,18; 3,17</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 7,25</t>
+          <t>-7,84; 8,58</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 3,1</t>
+          <t>-13,49; 0,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,82; 12,02</t>
+          <t>3,77; 35,17</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 0,32</t>
+          <t>-41,41; 13,94</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 36,03</t>
+          <t>-28,23; 39,0</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-38,5; 14,21</t>
+          <t>-39,43; 2,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>4,38; 82,78</t>
+          <t>19,66; 254,76</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-5,15</t>
+          <t>-1,85</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,04</t>
+          <t>2,07</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-6,38</t>
+          <t>-1,64</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,63</t>
+          <t>0,27</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-19,09%</t>
+          <t>-7,49%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,16%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-21,0%</t>
+          <t>-7,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>51,77%</t>
+          <t>1,27%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 3,17</t>
+          <t>-7,51; 3,16</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 8,58</t>
+          <t>-3,67; 8,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,6</t>
+          <t>-7,74; 4,94</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>2,42; 17,13</t>
+          <t>-9,93; 6,27</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 13,94</t>
+          <t>-27,61; 14,34</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 39,0</t>
+          <t>-16,59; 51,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 2,78</t>
+          <t>-30,67; 26,76</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>8,74; 122,47</t>
+          <t>-39,75; 31,84</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-1,85</t>
+          <t>-3,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>2,07</t>
+          <t>-0,61</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-1,64</t>
+          <t>-3,86</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,54</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-7,49%</t>
+          <t>-13,61%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>10,79%</t>
+          <t>-2,63%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-7,42%</t>
+          <t>-15,55%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>40,11%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 3,16</t>
+          <t>-6,81; -0,19</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 8,43</t>
+          <t>-3,79; 3,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,94</t>
+          <t>-7,7; -0,05</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,39; 9,27</t>
+          <t>2,26; 14,79</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 14,34</t>
+          <t>-26,05; -1,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 51,88</t>
+          <t>-15,53; 15,64</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 26,76</t>
+          <t>-28,19; 0,21</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-10,98; 49,11</t>
+          <t>11,88; 113,38</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>-3,39</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>-0,61</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-3,86</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>4,86</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>-13,61%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>-2,63%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>-15,55%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>24,93%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-6,81; -0,19</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-3,79; 3,47</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-7,7; -0,05</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>1,66; 8,36</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>-26,05; -1,01</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>-15,53; 15,64</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>-28,19; 0,21</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>7,97; 46,36</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P68-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P68-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-7,72; 8,14</t>
+          <t>-6,87; 7,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,68; 2,01</t>
+          <t>-15,77; 1,86</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-12,19; 3,72</t>
+          <t>-12,26; 3,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,36; 5,75</t>
+          <t>-6,62; 5,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,97; 45,36</t>
+          <t>-30,3; 43,83</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 7,82</t>
+          <t>-48,16; 7,79</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-47,66; 19,5</t>
+          <t>-47,82; 18,63</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-25,48; 32,33</t>
+          <t>-26,83; 33,72</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-12,88; 0,09</t>
+          <t>-12,99; 0,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-6,03; 7,25</t>
+          <t>-6,2; 7,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-10,19; 3,1</t>
+          <t>-10,36; 3,37</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,79; 20,6</t>
+          <t>3,51; 21,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-44,24; 0,32</t>
+          <t>-44,57; 0,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-24,25; 36,03</t>
+          <t>-23,29; 37,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-38,5; 14,21</t>
+          <t>-38,55; 18,22</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,62; 312,88</t>
+          <t>16,09; 335,01</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-12,18; 3,17</t>
+          <t>-12,37; 2,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-7,84; 8,58</t>
+          <t>-7,26; 7,74</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-13,49; 0,6</t>
+          <t>-13,21; 1,35</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,77; 35,17</t>
+          <t>3,68; 36,02</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-41,41; 13,94</t>
+          <t>-42,77; 9,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 39,0</t>
+          <t>-27,28; 35,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-39,43; 2,78</t>
+          <t>-38,78; 5,11</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,66; 254,76</t>
+          <t>17,7; 267,15</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-7,51; 3,16</t>
+          <t>-7,34; 3,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 8,43</t>
+          <t>-4,0; 8,37</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,74; 4,94</t>
+          <t>-8,02; 4,27</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,93; 6,27</t>
+          <t>-9,47; 6,04</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-27,61; 14,34</t>
+          <t>-26,79; 17,88</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-16,59; 51,88</t>
+          <t>-18,34; 50,51</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-30,67; 26,76</t>
+          <t>-32,76; 22,26</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-39,75; 31,84</t>
+          <t>-39,63; 29,58</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-6,81; -0,19</t>
+          <t>-6,32; 0,33</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,47</t>
+          <t>-4,3; 2,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-7,7; -0,05</t>
+          <t>-7,44; -0,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>2,26; 14,79</t>
+          <t>2,1; 14,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -1,01</t>
+          <t>-24,28; 1,28</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-15,53; 15,64</t>
+          <t>-17,41; 12,92</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-28,19; 0,21</t>
+          <t>-27,73; -1,23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>11,88; 113,38</t>
+          <t>10,36; 105,51</t>
         </is>
       </c>
     </row>
